--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_24.07.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4699999999999989</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,13 +525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>short</t>
@@ -535,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>295.99</v>
+        <v>6971</v>
       </c>
       <c r="H3" t="n">
-        <v>296.5</v>
+        <v>6964.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5099999999999909</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +563,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>137.16</v>
+        <v>145.34</v>
       </c>
       <c r="H4" t="n">
-        <v>136.76</v>
+        <v>146.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="J4" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -609,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6971</v>
+        <v>665.6</v>
       </c>
       <c r="H5" t="n">
-        <v>6964.5</v>
+        <v>664.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -627,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -645,16 +657,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>535.65</v>
+        <v>1471</v>
       </c>
       <c r="H6" t="n">
-        <v>537</v>
+        <v>1464.8</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.350000000000023</v>
+        <v>6.200000000000045</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -672,7 +684,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -681,16 +693,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1084.6</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1084.6</v>
+        <v>0.10026</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.0006600000000000078</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="8">
@@ -699,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -717,16 +729,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>129.48</v>
+        <v>137.16</v>
       </c>
       <c r="H8" t="n">
-        <v>131.44</v>
+        <v>136.76</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.960000000000008</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.51</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
@@ -735,7 +747,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -753,16 +765,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>169.68</v>
+        <v>129.48</v>
       </c>
       <c r="H9" t="n">
-        <v>171.74</v>
+        <v>131.44</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.060000000000002</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.21</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="10">
@@ -771,7 +783,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -789,16 +801,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1471</v>
+        <v>3120.25</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.8</v>
+        <v>3132.95</v>
       </c>
       <c r="I10" t="n">
-        <v>6.200000000000045</v>
+        <v>-12.69999999999982</v>
       </c>
       <c r="J10" t="n">
-        <v>0.42</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="11">
@@ -807,15 +819,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>short</t>
@@ -827,16 +837,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>64.25</v>
+        <v>169.68</v>
       </c>
       <c r="H11" t="n">
-        <v>63.78</v>
+        <v>171.74</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4699999999999989</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.73</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="12">
@@ -845,15 +855,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>long</t>
@@ -865,16 +873,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>145.34</v>
+        <v>1084.6</v>
       </c>
       <c r="H12" t="n">
-        <v>146.02</v>
+        <v>1084.6</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6800000000000068</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -883,7 +891,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -901,16 +909,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.09960000000000001</v>
+        <v>535.65</v>
       </c>
       <c r="H13" t="n">
-        <v>0.10026</v>
+        <v>537</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0006599999999999939</v>
+        <v>-1.350000000000023</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.66</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="14">
@@ -919,7 +927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -928,7 +936,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -937,16 +945,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3120.25</v>
+        <v>38.02</v>
       </c>
       <c r="H14" t="n">
-        <v>3132.95</v>
+        <v>37.995</v>
       </c>
       <c r="I14" t="n">
-        <v>-12.69999999999982</v>
+        <v>-0.02500000000000568</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.41</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -955,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -964,7 +972,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -973,54 +981,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>38.02</v>
+        <v>295.99</v>
       </c>
       <c r="H15" t="n">
-        <v>37.995</v>
+        <v>296.5</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02500000000000568</v>
+        <v>-0.5099999999999909</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.06999999999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>665.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>664.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.23</v>
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,13 +1095,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0006599999999999939</v>
+        <v>-0.0006600000000000078</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0006599999999999939</v>
+        <v>-0.0006600000000000078</v>
       </c>
       <c r="E4" t="n">
         <v>-0.66</v>
@@ -1381,24 +1351,6 @@
       <c r="F15" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
